--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/web-template/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/F24/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7A67F7-4106-E840-8DCF-C54078ADD9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920E8AC1-E065-B544-B879-1E0FC077FE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29540" yWindow="1120" windowWidth="20540" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -232,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -248,28 +248,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -526,13 +524,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="19">
         <v>1</v>
       </c>
       <c r="D2" s="8"/>
@@ -540,547 +538,336 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="23" t="s">
+      <c r="C3" s="20"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="21" t="s">
+      <c r="C4" s="19">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="10"/>
+      <c r="C5" s="20"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="14"/>
+      <c r="C6" s="19">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="18"/>
+      <c r="A7" s="10"/>
+      <c r="C7" s="20"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="9">
-        <v>3</v>
+      <c r="C8" s="19">
+        <v>4</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9">
-        <v>4</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="10"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="C9" s="20"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="19">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="C11" s="20"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="14"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="19">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="18"/>
+      <c r="A13" s="10"/>
+      <c r="C13" s="20"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="9">
-        <v>5</v>
+      <c r="C14" s="19">
+        <v>7</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9">
-        <v>6</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="10"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="C15" s="20"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="19">
+        <v>8</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="C17" s="20"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="14"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="19">
+        <v>9</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="18"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="9">
-        <v>7</v>
+      <c r="C20" s="19">
+        <v>10</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9">
-        <v>8</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="10"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="19">
+        <v>11</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="14"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="19">
+        <v>12</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="18"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="9">
-        <v>9</v>
+      <c r="C26" s="19">
+        <v>13</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="18"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9">
-        <v>10</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="10"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="19">
+        <v>14</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="14"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="19">
+        <v>15</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="18"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9">
-        <v>11</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="18"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9">
-        <v>12</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="10"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="18"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9">
-        <v>13</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="10"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="18"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9">
-        <v>14</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="10"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="18"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9">
-        <v>15</v>
-      </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="10"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="18"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/F24/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920E8AC1-E065-B544-B879-1E0FC077FE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB82D42-0EFC-E140-B55E-D8B814BA0AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29540" yWindow="1120" windowWidth="20540" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="27140" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -41,9 +40,6 @@
     <t>Topic</t>
   </si>
   <si>
-    <t>Reading</t>
-  </si>
-  <si>
     <t xml:space="preserve">proj </t>
   </si>
   <si>
@@ -71,23 +67,143 @@
     <t>presy</t>
   </si>
   <si>
-    <t>inClass</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>exam</t>
-  </si>
-  <si>
     <t>Week</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>NO CLASS - AUTUMN RECESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">italic </t>
+  </si>
+  <si>
+    <t>NO CLASS - CROMWELL DAY</t>
+  </si>
+  <si>
+    <t>NO CLASS - THANKSGIVING RECESS</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>MOUNTAIN DAY?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Project Demonstrations </t>
+  </si>
+  <si>
+    <t>FP Workshop - Getting off the Ground</t>
+  </si>
+  <si>
+    <t>AB AT VIS2024 - Mid-Semester Project Ideation</t>
+  </si>
+  <si>
+    <t>hw01</t>
+  </si>
+  <si>
+    <t>hw02</t>
+  </si>
+  <si>
+    <t>hw03</t>
+  </si>
+  <si>
+    <t>hw04</t>
+  </si>
+  <si>
+    <t>fp03</t>
+  </si>
+  <si>
+    <t>fp02</t>
+  </si>
+  <si>
+    <t>fp01</t>
+  </si>
+  <si>
+    <t>mp01</t>
+  </si>
+  <si>
+    <t>Mental Models and Visual Perception</t>
+  </si>
+  <si>
+    <t>Data Wrangling and Modeling 101</t>
+  </si>
+  <si>
+    <t>Data Visualization 101</t>
+  </si>
+  <si>
+    <t>Interaction</t>
+  </si>
+  <si>
+    <t>Coordinating Multiple Views</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time-varying Data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geospatial Data </t>
+  </si>
+  <si>
+    <t>Networks</t>
+  </si>
+  <si>
+    <t>Color and Visual Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDA on High-dimensional Data </t>
+  </si>
+  <si>
+    <t>DC4 Workshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provenance </t>
+  </si>
+  <si>
+    <t>Dimension Reduction and Projection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid-Semester Project Presentations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communicating Uncertainty </t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>FP Workshop - First Code Review &amp; Peer Feedback</t>
+  </si>
+  <si>
+    <t>proj italic</t>
+  </si>
+  <si>
+    <t>FP Workshop -  Second Code Review</t>
+  </si>
+  <si>
+    <t>Open Problems in Visual Analytics</t>
+  </si>
+  <si>
+    <t>DC3 Workshop</t>
+  </si>
+  <si>
+    <t>proj</t>
+  </si>
+  <si>
+    <t>hw05</t>
+  </si>
+  <si>
+    <t>Storytelling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -125,8 +241,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +261,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF1155CC"/>
         <bgColor rgb="FF1155CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -232,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -258,6 +400,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -267,7 +453,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,27 +670,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" style="6"/>
+    <col min="3" max="3" width="7.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -514,351 +701,583 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="47">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="19">
+        <v>45538</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="20">
+        <v>45540</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="47">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="19">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="19">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="D4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="19">
+        <v>45545</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
-      <c r="B5" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="18"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="20">
+        <v>45547</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="47">
         <v>3</v>
       </c>
-      <c r="C6" s="19">
-        <v>3</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="D6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="19">
+        <v>45551</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="20"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C7" s="48"/>
+      <c r="D7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="20">
+        <v>45554</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="19">
+      <c r="C8" s="47">
         <v>4</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="D8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="19">
+        <v>45559</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="20"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="19">
+      <c r="C9" s="48"/>
+      <c r="D9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="20">
+        <v>45561</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="47">
         <v>5</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="31">
+        <v>45566</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="20"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C11" s="48"/>
+      <c r="D11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="20">
+        <v>45294</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="19">
+      <c r="C12" s="47">
         <v>6</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="D12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="19">
+        <v>45573</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="20"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="19">
+      <c r="C13" s="48"/>
+      <c r="D13" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="20">
+        <v>45575</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="47">
         <v>7</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="C15" s="20"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="31">
+        <v>45580</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="20">
+        <v>45582</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="19">
+      <c r="B16" s="17"/>
+      <c r="C16" s="47">
         <v>8</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="D16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="19">
+        <v>45587</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="C17" s="20"/>
-      <c r="I17" s="11"/>
+      <c r="A17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="20">
+        <v>45589</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="45" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="19">
+      <c r="B18" s="17"/>
+      <c r="C18" s="47">
         <v>9</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="D18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="19">
+        <v>45594</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="21">
+        <v>45596</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="19">
+      <c r="C20" s="47">
         <v>10</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="D20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="19">
+        <v>45601</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="21">
+        <v>45603</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="19">
+      <c r="A22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="47">
         <v>11</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="D22" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="31">
+        <v>45608</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14"/>
+      <c r="B23" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="21">
+        <v>45610</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="19">
-        <v>12</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="C24" s="47">
+        <v>12</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="19">
+        <v>45615</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="14"/>
+      <c r="B25" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="21">
+        <v>45617</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="19">
-        <v>13</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="9"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="47">
+        <v>13</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="19">
+        <v>45622</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="44"/>
     </row>
     <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
+      <c r="A27" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="36">
+        <v>45624</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="19">
+      <c r="B28" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="47">
         <v>14</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="9"/>
+      <c r="D28" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="19">
+        <v>45629</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="44"/>
     </row>
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="21">
+        <v>45631</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="19">
+      <c r="A30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="47">
         <v>15</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="D30" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="19">
+        <v>45636</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="9"/>
+      <c r="H30" s="44" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="13"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="14"/>
+      <c r="H31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -868,6 +1287,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB82D42-0EFC-E140-B55E-D8B814BA0AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044282CE-D3B2-B24F-9331-DAF42D66AAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="27140" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32460" yWindow="1440" windowWidth="27140" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -130,9 +130,6 @@
     <t>Mental Models and Visual Perception</t>
   </si>
   <si>
-    <t>Data Wrangling and Modeling 101</t>
-  </si>
-  <si>
     <t>Data Visualization 101</t>
   </si>
   <si>
@@ -197,6 +194,12 @@
   </si>
   <si>
     <t>Storytelling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Data Wrangling with Python and R</t>
   </si>
 </sst>
 </file>
@@ -447,10 +450,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -728,7 +731,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="48"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -753,7 +756,7 @@
         <v>45545</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -761,7 +764,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="48"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -769,7 +772,7 @@
         <v>45547</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>23</v>
@@ -789,14 +792,14 @@
         <v>45551</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="48"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -804,7 +807,7 @@
         <v>45554</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>24</v>
@@ -826,14 +829,14 @@
         <v>45559</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="48"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -841,7 +844,7 @@
         <v>45561</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>25</v>
@@ -874,7 +877,7 @@
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="48"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -882,7 +885,7 @@
         <v>45294</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>26</v>
@@ -904,14 +907,14 @@
         <v>45573</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="48"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -919,7 +922,7 @@
         <v>45575</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="45"/>
@@ -949,9 +952,9 @@
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="48"/>
+        <v>47</v>
+      </c>
+      <c r="C15" s="49"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -979,7 +982,7 @@
         <v>45587</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
@@ -989,9 +992,9 @@
         <v>10</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="48"/>
+        <v>51</v>
+      </c>
+      <c r="C17" s="49"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>45589</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="45" t="s">
@@ -1019,7 +1022,7 @@
         <v>45594</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
@@ -1027,7 +1030,7 @@
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="49"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1035,10 +1038,10 @@
         <v>45596</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H19" s="43" t="s">
         <v>26</v>
@@ -1058,7 +1061,7 @@
         <v>45601</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -1067,7 +1070,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="49"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1075,13 +1078,13 @@
         <v>45603</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>29</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1109,9 +1112,9 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="49"/>
+        <v>51</v>
+      </c>
+      <c r="C23" s="48"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1141,7 +1144,7 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="9"/>
@@ -1149,9 +1152,9 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="49"/>
+        <v>51</v>
+      </c>
+      <c r="C25" s="48"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>45617</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>27</v>
@@ -1181,7 +1184,7 @@
         <v>45622</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="44"/>
@@ -1193,7 +1196,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1209,7 +1212,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="47">
         <v>14</v>
@@ -1221,15 +1224,17 @@
         <v>45629</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="44"/>
     </row>
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="49"/>
+      <c r="B29" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="48"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1237,7 +1242,7 @@
         <v>45631</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="14"/>
@@ -1269,7 +1274,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="49"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1278,6 +1283,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1287,12 +1298,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044282CE-D3B2-B24F-9331-DAF42D66AAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179A9A30-C771-EA44-A3A8-58BA636C88C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32460" yWindow="1440" windowWidth="27140" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32440" yWindow="1440" windowWidth="27480" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -151,9 +151,6 @@
     <t>Color and Visual Channels</t>
   </si>
   <si>
-    <t xml:space="preserve">EDA on High-dimensional Data </t>
-  </si>
-  <si>
     <t>DC4 Workshop</t>
   </si>
   <si>
@@ -193,13 +190,16 @@
     <t>hw05</t>
   </si>
   <si>
-    <t>Storytelling</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Data Wrangling with Python and R</t>
+  </si>
+  <si>
+    <t>Prototyping</t>
+  </si>
+  <si>
+    <t>MS Project Workshop</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -450,12 +450,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,7 +675,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -731,7 +732,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="49"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -756,7 +757,7 @@
         <v>45545</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -764,7 +765,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="49"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -799,7 +800,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="49"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -836,7 +837,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="49"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -877,7 +878,7 @@
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="49"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -885,7 +886,7 @@
         <v>45294</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>26</v>
@@ -914,7 +915,7 @@
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="49"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -952,9 +953,9 @@
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="49"/>
+        <v>46</v>
+      </c>
+      <c r="C15" s="48"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -971,7 +972,9 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
-      <c r="B16" s="17"/>
+      <c r="B16" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="C16" s="47">
         <v>8</v>
       </c>
@@ -981,8 +984,8 @@
       <c r="E16" s="19">
         <v>45587</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>39</v>
+      <c r="F16" s="50" t="s">
+        <v>55</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
@@ -992,9 +995,9 @@
         <v>10</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="49"/>
+        <v>50</v>
+      </c>
+      <c r="C17" s="48"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>45589</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="45" t="s">
@@ -1022,7 +1025,7 @@
         <v>45594</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
@@ -1030,7 +1033,7 @@
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="48"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1038,10 +1041,10 @@
         <v>45596</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" s="43" t="s">
         <v>26</v>
@@ -1061,7 +1064,7 @@
         <v>45601</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -1070,7 +1073,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="48"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1078,13 +1081,13 @@
         <v>45603</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>29</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1111,10 +1114,8 @@
     </row>
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
-      <c r="B23" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="48"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="9"/>
@@ -1152,9 +1153,9 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="48"/>
+        <v>50</v>
+      </c>
+      <c r="C25" s="49"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>45617</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>27</v>
@@ -1184,7 +1185,7 @@
         <v>45622</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="44"/>
@@ -1196,7 +1197,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="48"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1212,7 +1213,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="47">
         <v>14</v>
@@ -1224,7 +1225,7 @@
         <v>45629</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="44"/>
@@ -1232,9 +1233,9 @@
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="48"/>
+        <v>52</v>
+      </c>
+      <c r="C29" s="49"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>45631</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="14"/>
@@ -1274,7 +1275,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="48"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1283,12 +1284,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1298,6 +1293,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179A9A30-C771-EA44-A3A8-58BA636C88C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59EE129-DBDB-9142-9F35-E6CF408F37B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32440" yWindow="1440" windowWidth="27480" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="27480" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -447,16 +447,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -714,7 +714,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="47">
+      <c r="C2" s="48">
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -732,7 +732,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="48"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -747,7 +747,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="47">
+      <c r="C4" s="48">
         <v>2</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -765,7 +765,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="48"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -783,7 +783,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="47">
+      <c r="C6" s="48">
         <v>3</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -800,7 +800,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="48"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -820,7 +820,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="47">
+      <c r="C8" s="48">
         <v>4</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -837,7 +837,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="48"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -861,7 +861,7 @@
       <c r="B10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="48">
         <v>5</v>
       </c>
       <c r="D10" s="30" t="s">
@@ -878,7 +878,7 @@
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="48"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -898,7 +898,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="47">
+      <c r="C12" s="48">
         <v>6</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -915,7 +915,7 @@
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="48"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -926,7 +926,9 @@
         <v>38</v>
       </c>
       <c r="G13" s="18"/>
-      <c r="H13" s="45"/>
+      <c r="H13" s="45" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
@@ -935,7 +937,7 @@
       <c r="B14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="48">
         <v>7</v>
       </c>
       <c r="D14" s="30" t="s">
@@ -955,7 +957,7 @@
       <c r="B15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="48"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -975,7 +977,7 @@
       <c r="B16" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="48">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -984,7 +986,7 @@
       <c r="E16" s="19">
         <v>45587</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="47" t="s">
         <v>55</v>
       </c>
       <c r="G16" s="8"/>
@@ -997,7 +999,7 @@
       <c r="B17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1015,7 +1017,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="17"/>
-      <c r="C18" s="47">
+      <c r="C18" s="48">
         <v>9</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -1046,15 +1048,13 @@
       <c r="G19" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="43" t="s">
-        <v>26</v>
-      </c>
+      <c r="H19" s="43"/>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="47">
+      <c r="C20" s="48">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -1097,7 +1097,7 @@
       <c r="B22" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="48">
         <v>11</v>
       </c>
       <c r="D22" s="30" t="s">
@@ -1135,7 +1135,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="47">
+      <c r="C24" s="48">
         <v>12</v>
       </c>
       <c r="D24" s="23" t="s">
@@ -1175,7 +1175,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="17"/>
-      <c r="C26" s="47">
+      <c r="C26" s="48">
         <v>13</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -1215,7 +1215,7 @@
       <c r="B28" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="48">
         <v>14</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -1255,7 +1255,7 @@
       <c r="B30" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="47">
+      <c r="C30" s="48">
         <v>15</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -1284,6 +1284,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1293,12 +1299,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59EE129-DBDB-9142-9F35-E6CF408F37B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179024F9-055F-7A43-A6B1-7071A06870CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="500" windowWidth="27480" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,9 +142,6 @@
     <t xml:space="preserve">Time-varying Data </t>
   </si>
   <si>
-    <t xml:space="preserve">Geospatial Data </t>
-  </si>
-  <si>
     <t>Networks</t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>MS Project Workshop</t>
+  </si>
+  <si>
+    <t>Geospatial Data - SAL</t>
   </si>
 </sst>
 </file>
@@ -451,10 +451,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -732,7 +732,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="50"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -757,7 +757,7 @@
         <v>45545</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -765,7 +765,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="50"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -800,7 +800,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="50"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -837,7 +837,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="50"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -845,7 +845,7 @@
         <v>45561</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>25</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="50"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -886,7 +886,7 @@
         <v>45294</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>26</v>
@@ -908,14 +908,14 @@
         <v>45573</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="50"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -923,7 +923,7 @@
         <v>45575</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="45" t="s">
@@ -955,9 +955,9 @@
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="50"/>
+        <v>45</v>
+      </c>
+      <c r="C15" s="49"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -975,7 +975,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="48">
         <v>8</v>
@@ -987,7 +987,7 @@
         <v>45587</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
@@ -997,9 +997,9 @@
         <v>10</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="50"/>
+        <v>49</v>
+      </c>
+      <c r="C17" s="49"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>45589</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="45" t="s">
@@ -1027,7 +1027,7 @@
         <v>45594</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
@@ -1035,7 +1035,7 @@
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="49"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1043,10 +1043,10 @@
         <v>45596</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H19" s="43"/>
       <c r="I19" s="10"/>
@@ -1064,7 +1064,7 @@
         <v>45601</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -1073,7 +1073,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="49"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1081,13 +1081,13 @@
         <v>45603</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>29</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1115,7 +1115,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="49"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="9"/>
@@ -1153,9 +1153,9 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="49"/>
+        <v>49</v>
+      </c>
+      <c r="C25" s="50"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>45617</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>27</v>
@@ -1185,7 +1185,7 @@
         <v>45622</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="44"/>
@@ -1197,7 +1197,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1213,7 +1213,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="48">
         <v>14</v>
@@ -1225,7 +1225,7 @@
         <v>45629</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="44"/>
@@ -1233,9 +1233,9 @@
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="49"/>
+        <v>51</v>
+      </c>
+      <c r="C29" s="50"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>45631</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="14"/>
@@ -1275,7 +1275,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="49"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1284,12 +1284,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1299,6 +1293,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179024F9-055F-7A43-A6B1-7071A06870CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7306D71-5E7D-F541-A763-7A7F56EED6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="27480" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34240" yWindow="540" windowWidth="27480" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -190,9 +190,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Data Wrangling with Python and R</t>
-  </si>
-  <si>
     <t>Prototyping</t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>Geospatial Data - SAL</t>
+  </si>
+  <si>
+    <t>Data Wrangling with Python</t>
   </si>
 </sst>
 </file>
@@ -451,10 +451,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -675,7 +675,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -732,7 +732,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -757,7 +757,7 @@
         <v>45545</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -765,7 +765,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="49"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -800,7 +800,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="49"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -837,7 +837,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="49"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -845,7 +845,7 @@
         <v>45561</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>25</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="49"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -915,7 +915,7 @@
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="49"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -957,7 +957,7 @@
       <c r="B15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -987,7 +987,7 @@
         <v>45587</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
@@ -999,7 +999,7 @@
       <c r="B17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1035,7 +1035,7 @@
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="50"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1073,7 +1073,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="50"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>45603</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>29</v>
@@ -1115,7 +1115,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="50"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1155,7 +1155,7 @@
       <c r="B25" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="50"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1235,7 +1235,7 @@
       <c r="B29" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="50"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1275,7 +1275,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="50"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1284,6 +1284,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1293,12 +1299,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS235/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/teaching/SDS-CS235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7306D71-5E7D-F541-A763-7A7F56EED6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3566B9BE-A525-BD41-86A4-08EFC2565A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34240" yWindow="540" windowWidth="27480" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44800" yWindow="540" windowWidth="27480" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -91,9 +91,6 @@
     <t>Introduction</t>
   </si>
   <si>
-    <t>MOUNTAIN DAY?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final Project Demonstrations </t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>Data Wrangling with Python</t>
+  </si>
+  <si>
+    <t>MOUNTAIN DAY? Intro to Leaflet</t>
   </si>
 </sst>
 </file>
@@ -451,10 +451,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -675,7 +675,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -732,7 +732,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="50"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -740,7 +740,7 @@
         <v>45540</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="11"/>
     </row>
@@ -757,7 +757,7 @@
         <v>45545</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -765,7 +765,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="50"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -773,10 +773,10 @@
         <v>45547</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -793,14 +793,14 @@
         <v>45551</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="50"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -808,13 +808,13 @@
         <v>45554</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -830,14 +830,14 @@
         <v>45559</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="50"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -845,13 +845,13 @@
         <v>45561</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -871,14 +871,14 @@
         <v>45566</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="50"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -886,13 +886,13 @@
         <v>45294</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -908,14 +908,14 @@
         <v>45573</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="50"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -923,11 +923,11 @@
         <v>45575</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -955,9 +955,9 @@
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="50"/>
+        <v>44</v>
+      </c>
+      <c r="C15" s="49"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -965,17 +965,17 @@
         <v>45582</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="48">
         <v>8</v>
@@ -987,7 +987,7 @@
         <v>45587</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
@@ -997,9 +997,9 @@
         <v>10</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="50"/>
+        <v>48</v>
+      </c>
+      <c r="C17" s="49"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1007,11 +1007,11 @@
         <v>45589</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1027,7 +1027,7 @@
         <v>45594</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
@@ -1035,7 +1035,7 @@
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="49"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1043,10 +1043,10 @@
         <v>45596</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19" s="43"/>
       <c r="I19" s="10"/>
@@ -1064,7 +1064,7 @@
         <v>45601</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -1073,7 +1073,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="49"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1081,13 +1081,13 @@
         <v>45603</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1115,7 +1115,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="49"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1123,13 +1123,13 @@
         <v>45610</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="43" t="s">
         <v>28</v>
-      </c>
-      <c r="H23" s="43" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1145,7 +1145,7 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="9"/>
@@ -1153,9 +1153,9 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="49"/>
+        <v>48</v>
+      </c>
+      <c r="C25" s="50"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1163,13 +1163,13 @@
         <v>45617</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G25" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="43" t="s">
         <v>27</v>
-      </c>
-      <c r="H25" s="43" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1185,7 +1185,7 @@
         <v>45622</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="44"/>
@@ -1197,7 +1197,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1213,7 +1213,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="48">
         <v>14</v>
@@ -1225,7 +1225,7 @@
         <v>45629</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="44"/>
@@ -1233,9 +1233,9 @@
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="49"/>
+        <v>50</v>
+      </c>
+      <c r="C29" s="50"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>45631</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="14"/>
@@ -1265,17 +1265,17 @@
         <v>45636</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="49"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1284,12 +1284,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1299,6 +1293,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/teaching/SDS-CS235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3566B9BE-A525-BD41-86A4-08EFC2565A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D120F04D-203F-7D40-8C53-FAF43E79505B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44800" yWindow="540" windowWidth="27480" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,12 +145,6 @@
     <t>Color and Visual Channels</t>
   </si>
   <si>
-    <t>DC4 Workshop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provenance </t>
-  </si>
-  <si>
     <t>Dimension Reduction and Projection</t>
   </si>
   <si>
@@ -175,9 +169,6 @@
     <t>Open Problems in Visual Analytics</t>
   </si>
   <si>
-    <t>DC3 Workshop</t>
-  </si>
-  <si>
     <t>proj</t>
   </si>
   <si>
@@ -200,6 +191,15 @@
   </si>
   <si>
     <t>MOUNTAIN DAY? Intro to Leaflet</t>
+  </si>
+  <si>
+    <t>hw03 Workshop</t>
+  </si>
+  <si>
+    <t>hw04 Workshop</t>
+  </si>
+  <si>
+    <t>hw05 Workshop</t>
   </si>
 </sst>
 </file>
@@ -451,10 +451,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -675,7 +675,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -732,7 +732,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -757,7 +757,7 @@
         <v>45545</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -765,7 +765,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="49"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -800,7 +800,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="49"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -837,7 +837,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="49"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -845,7 +845,7 @@
         <v>45561</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>24</v>
@@ -871,14 +871,14 @@
         <v>45566</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="49"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -886,7 +886,7 @@
         <v>45294</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>25</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="49"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -923,12 +923,10 @@
         <v>45575</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G13" s="18"/>
-      <c r="H13" s="45" t="s">
-        <v>25</v>
-      </c>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
@@ -955,9 +953,9 @@
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="49"/>
+        <v>42</v>
+      </c>
+      <c r="C15" s="50"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -970,12 +968,14 @@
       <c r="G15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="11"/>
+      <c r="H15" s="45" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C16" s="48">
         <v>8</v>
@@ -987,7 +987,7 @@
         <v>45587</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
@@ -997,9 +997,9 @@
         <v>10</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="49"/>
+        <v>45</v>
+      </c>
+      <c r="C17" s="50"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>45589</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="45" t="s">
@@ -1027,7 +1027,7 @@
         <v>45594</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
@@ -1035,7 +1035,7 @@
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="50"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1043,10 +1043,10 @@
         <v>45596</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H19" s="43"/>
       <c r="I19" s="10"/>
@@ -1064,7 +1064,7 @@
         <v>45601</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -1073,7 +1073,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="50"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1081,13 +1081,13 @@
         <v>45603</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>28</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1115,7 +1115,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="50"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="9"/>
@@ -1153,9 +1153,9 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="50"/>
+        <v>45</v>
+      </c>
+      <c r="C25" s="49"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>45617</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>26</v>
@@ -1185,7 +1185,7 @@
         <v>45622</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="44"/>
@@ -1197,7 +1197,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1213,7 +1213,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C28" s="48">
         <v>14</v>
@@ -1225,7 +1225,7 @@
         <v>45629</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="44"/>
@@ -1233,9 +1233,9 @@
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="50"/>
+        <v>47</v>
+      </c>
+      <c r="C29" s="49"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>45631</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="14"/>
@@ -1275,7 +1275,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="50"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1284,6 +1284,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1293,12 +1299,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/teaching/SDS-CS235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D120F04D-203F-7D40-8C53-FAF43E79505B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2DD7E0-F11F-EA48-BBA3-B0941DEC1422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44800" yWindow="540" windowWidth="27480" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7380" yWindow="2300" windowWidth="27480" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Data Wrangling with Python</t>
   </si>
   <si>
-    <t>MOUNTAIN DAY? Intro to Leaflet</t>
-  </si>
-  <si>
     <t>hw03 Workshop</t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>hw05 Workshop</t>
+  </si>
+  <si>
+    <t>Intro to Leaflet</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -451,12 +451,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,7 +682,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -732,7 +739,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="50"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -765,7 +772,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="50"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -800,7 +807,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="50"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -837,7 +844,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="50"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -855,30 +862,26 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="A10" s="15"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="48">
         <v>5</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="31">
+      <c r="D10" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="52">
         <v>45566</v>
       </c>
-      <c r="F10" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
+      <c r="F10" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="50"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -886,7 +889,7 @@
         <v>45294</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>25</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="50"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -923,7 +926,7 @@
         <v>45575</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="45"/>
@@ -955,7 +958,7 @@
       <c r="B15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -999,7 +1002,7 @@
       <c r="B17" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1035,7 +1038,7 @@
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="49"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1064,7 +1067,7 @@
         <v>45601</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -1073,7 +1076,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="49"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1115,7 +1118,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="49"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1155,7 +1158,7 @@
       <c r="B25" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1197,7 +1200,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1235,7 +1238,7 @@
       <c r="B29" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="49"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1275,7 +1278,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="49"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1284,12 +1287,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1299,6 +1296,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/teaching/SDS-CS235/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2DD7E0-F11F-EA48-BBA3-B0941DEC1422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5054A0-B36D-7246-9E82-528562E68C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="2300" windowWidth="27480" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="500" windowWidth="27480" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -121,9 +121,6 @@
     <t>fp01</t>
   </si>
   <si>
-    <t>mp01</t>
-  </si>
-  <si>
     <t>Mental Models and Visual Perception</t>
   </si>
   <si>
@@ -199,7 +196,10 @@
     <t>hw05 Workshop</t>
   </si>
   <si>
-    <t>Intro to Leaflet</t>
+    <t>MOUNTAIN DAY!! Intro to Leaflet</t>
+  </si>
+  <si>
+    <t>mp</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -448,6 +448,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -457,13 +458,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,7 +676,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -721,7 +715,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="48">
+      <c r="C2" s="49">
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -739,7 +733,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -747,14 +741,14 @@
         <v>45540</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="48">
+      <c r="C4" s="49">
         <v>2</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -764,7 +758,7 @@
         <v>45545</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -772,7 +766,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="49"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -780,7 +774,7 @@
         <v>45547</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>22</v>
@@ -790,7 +784,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="48">
+      <c r="C6" s="49">
         <v>3</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -800,14 +794,14 @@
         <v>45551</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="49"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -815,7 +809,7 @@
         <v>45554</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>23</v>
@@ -827,7 +821,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="48">
+      <c r="C8" s="49">
         <v>4</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -837,14 +831,14 @@
         <v>45559</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="49"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -852,7 +846,7 @@
         <v>45561</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>24</v>
@@ -862,26 +856,30 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="48">
+      <c r="A10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="49">
         <v>5</v>
       </c>
-      <c r="D10" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="52">
+      <c r="D10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="31">
         <v>45566</v>
       </c>
-      <c r="F10" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54"/>
+      <c r="F10" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="49"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -889,7 +887,7 @@
         <v>45294</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>25</v>
@@ -901,7 +899,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="48">
+      <c r="C12" s="49">
         <v>6</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -911,14 +909,14 @@
         <v>45573</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="49"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -926,7 +924,7 @@
         <v>45575</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="45"/>
@@ -938,7 +936,7 @@
       <c r="B14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="49">
         <v>7</v>
       </c>
       <c r="D14" s="30" t="s">
@@ -956,9 +954,9 @@
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="49"/>
+        <v>41</v>
+      </c>
+      <c r="C15" s="50"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -969,7 +967,7 @@
         <v>21</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="H15" s="45" t="s">
         <v>25</v>
@@ -978,9 +976,9 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="48">
+        <v>44</v>
+      </c>
+      <c r="C16" s="49">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -990,7 +988,7 @@
         <v>45587</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
@@ -1000,9 +998,9 @@
         <v>10</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="49"/>
+        <v>44</v>
+      </c>
+      <c r="C17" s="50"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1010,17 +1008,17 @@
         <v>45589</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="45" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="17"/>
-      <c r="C18" s="48">
+      <c r="C18" s="49">
         <v>9</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -1030,7 +1028,7 @@
         <v>45594</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
@@ -1038,7 +1036,7 @@
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="50"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1046,10 +1044,10 @@
         <v>45596</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" s="43"/>
       <c r="I19" s="10"/>
@@ -1057,7 +1055,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="48">
+      <c r="C20" s="49">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -1067,7 +1065,7 @@
         <v>45601</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -1076,7 +1074,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="50"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1084,13 +1082,13 @@
         <v>45603</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>28</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1100,7 +1098,7 @@
       <c r="B22" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="49">
         <v>11</v>
       </c>
       <c r="D22" s="30" t="s">
@@ -1118,7 +1116,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="50"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1138,7 +1136,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="48">
+      <c r="C24" s="49">
         <v>12</v>
       </c>
       <c r="D24" s="23" t="s">
@@ -1148,7 +1146,7 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="9"/>
@@ -1156,9 +1154,9 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="50"/>
+        <v>44</v>
+      </c>
+      <c r="C25" s="51"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1166,7 +1164,7 @@
         <v>45617</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>26</v>
@@ -1178,7 +1176,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="17"/>
-      <c r="C26" s="48">
+      <c r="C26" s="49">
         <v>13</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -1188,7 +1186,7 @@
         <v>45622</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="44"/>
@@ -1200,7 +1198,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1216,9 +1214,9 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="48">
+        <v>44</v>
+      </c>
+      <c r="C28" s="49">
         <v>14</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -1228,7 +1226,7 @@
         <v>45629</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="44"/>
@@ -1236,9 +1234,9 @@
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="50"/>
+        <v>46</v>
+      </c>
+      <c r="C29" s="51"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1246,7 +1244,7 @@
         <v>45631</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="14"/>
@@ -1258,7 +1256,7 @@
       <c r="B30" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="48">
+      <c r="C30" s="49">
         <v>15</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -1278,7 +1276,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="50"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5054A0-B36D-7246-9E82-528562E68C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FFB6CA-28F8-6344-9565-3050BF72A48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="500" windowWidth="27480" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,9 +190,6 @@
     <t>hw03 Workshop</t>
   </si>
   <si>
-    <t>hw04 Workshop</t>
-  </si>
-  <si>
     <t>hw05 Workshop</t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>mp</t>
+  </si>
+  <si>
+    <t>Ab Sick - No Class</t>
   </si>
 </sst>
 </file>
@@ -452,10 +452,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -733,7 +733,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -766,7 +766,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="50"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -801,7 +801,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="50"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -838,7 +838,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="50"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -872,14 +872,14 @@
         <v>45566</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="50"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -902,21 +902,21 @@
       <c r="C12" s="49">
         <v>6</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="D12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="31">
         <v>45573</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
+      <c r="F12" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="50"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -924,7 +924,7 @@
         <v>45575</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="45"/>
@@ -956,7 +956,7 @@
       <c r="B15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -967,7 +967,7 @@
         <v>21</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="45" t="s">
         <v>25</v>
@@ -1000,7 +1000,7 @@
       <c r="B17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1036,7 +1036,7 @@
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="51"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>45601</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -1074,7 +1074,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="51"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1116,7 +1116,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="51"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="B25" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="51"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1198,7 +1198,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1236,7 +1236,7 @@
       <c r="B29" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1276,7 +1276,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="51"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1285,6 +1285,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1294,12 +1300,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FFB6CA-28F8-6344-9565-3050BF72A48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90389CC6-C12E-D648-B64F-73BE38F31CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="500" windowWidth="27480" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,10 +452,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -676,7 +676,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:H12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -733,7 +733,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="51"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -766,7 +766,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="51"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -801,7 +801,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="51"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -838,7 +838,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="51"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -879,7 +879,7 @@
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="51"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -916,7 +916,7 @@
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="51"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -956,7 +956,7 @@
       <c r="B15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -969,9 +969,7 @@
       <c r="G15" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="45" t="s">
-        <v>25</v>
-      </c>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
@@ -991,7 +989,9 @@
         <v>48</v>
       </c>
       <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
+      <c r="H16" s="44" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -1000,7 +1000,7 @@
       <c r="B17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1036,7 +1036,7 @@
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="50"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1074,7 +1074,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="50"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1116,7 +1116,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="50"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="B25" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="50"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1198,7 +1198,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1236,7 +1236,7 @@
       <c r="B29" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="50"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1276,7 +1276,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="50"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1285,12 +1285,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1300,6 +1294,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS235/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/teaching/SDS-CS235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90389CC6-C12E-D648-B64F-73BE38F31CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C17A5DC-CADE-634F-9817-475B2A317037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="500" windowWidth="27480" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45160" yWindow="920" windowWidth="27480" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -452,10 +452,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -676,7 +676,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -733,7 +733,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -766,7 +766,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="50"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -801,7 +801,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="50"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -838,7 +838,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="50"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -879,7 +879,7 @@
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="50"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -916,7 +916,7 @@
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="50"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -956,7 +956,7 @@
       <c r="B15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -1000,7 +1000,7 @@
       <c r="B17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1036,7 +1036,7 @@
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="51"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>45596</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>45</v>
@@ -1074,7 +1074,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="51"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1116,7 +1116,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="51"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="9"/>
@@ -1156,7 +1156,7 @@
       <c r="B25" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="51"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1198,7 +1198,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1236,7 +1236,7 @@
       <c r="B29" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1276,7 +1276,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="51"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1285,6 +1285,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1294,12 +1300,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/teaching/SDS-CS235/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C17A5DC-CADE-634F-9817-475B2A317037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306589EB-5D42-D14D-83F3-F48FF2DCB1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45160" yWindow="920" windowWidth="27480" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -94,9 +94,6 @@
     <t xml:space="preserve">Final Project Demonstrations </t>
   </si>
   <si>
-    <t>FP Workshop - Getting off the Ground</t>
-  </si>
-  <si>
     <t>AB AT VIS2024 - Mid-Semester Project Ideation</t>
   </si>
   <si>
@@ -154,27 +151,15 @@
     <t>Evaluation</t>
   </si>
   <si>
-    <t>FP Workshop - First Code Review &amp; Peer Feedback</t>
-  </si>
-  <si>
     <t>proj italic</t>
   </si>
   <si>
-    <t>FP Workshop -  Second Code Review</t>
-  </si>
-  <si>
-    <t>Open Problems in Visual Analytics</t>
-  </si>
-  <si>
     <t>proj</t>
   </si>
   <si>
     <t>hw05</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Prototyping</t>
   </si>
   <si>
@@ -200,6 +185,15 @@
   </si>
   <si>
     <t>Ab Sick - No Class</t>
+  </si>
+  <si>
+    <t>FP Workshop - Peer Feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FP Workshop - Prototype Testing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Problems in VA, AMA, Final Project Q&amp;A </t>
   </si>
 </sst>
 </file>
@@ -377,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -452,12 +446,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,15 +670,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="7.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="4.1640625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="6" max="6" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -733,7 +728,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="51"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -741,7 +736,7 @@
         <v>45540</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="11"/>
     </row>
@@ -758,7 +753,7 @@
         <v>45545</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -766,7 +761,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="51"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -774,10 +769,10 @@
         <v>45547</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -794,14 +789,14 @@
         <v>45551</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="51"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -809,13 +804,13 @@
         <v>45554</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -831,14 +826,14 @@
         <v>45559</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="51"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -846,13 +841,13 @@
         <v>45561</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -872,14 +867,14 @@
         <v>45566</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="51"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -887,13 +882,13 @@
         <v>45294</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -909,14 +904,14 @@
         <v>45573</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="51"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -924,7 +919,7 @@
         <v>45575</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="45"/>
@@ -954,9 +949,9 @@
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="51"/>
+        <v>39</v>
+      </c>
+      <c r="C15" s="50"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -964,17 +959,17 @@
         <v>45582</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C16" s="49">
         <v>8</v>
@@ -986,11 +981,11 @@
         <v>45587</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -998,9 +993,9 @@
         <v>10</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="51"/>
+        <v>40</v>
+      </c>
+      <c r="C17" s="50"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1008,11 +1003,11 @@
         <v>45589</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="45" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1028,7 +1023,7 @@
         <v>45594</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
@@ -1036,7 +1031,7 @@
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="50"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1044,10 +1039,10 @@
         <v>45596</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H19" s="43"/>
       <c r="I19" s="10"/>
@@ -1065,7 +1060,7 @@
         <v>45601</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -1074,7 +1069,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="50"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1082,13 +1077,13 @@
         <v>45603</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1115,8 +1110,10 @@
     </row>
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="50"/>
+      <c r="B23" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="51"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1124,13 +1121,13 @@
         <v>45610</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G23" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="43" t="s">
         <v>27</v>
-      </c>
-      <c r="H23" s="43" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1146,7 +1143,7 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="9"/>
@@ -1154,9 +1151,9 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="50"/>
+        <v>40</v>
+      </c>
+      <c r="C25" s="51"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1164,13 +1161,13 @@
         <v>45617</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G25" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="43" t="s">
         <v>26</v>
-      </c>
-      <c r="H25" s="43" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1186,7 +1183,7 @@
         <v>45622</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="44"/>
@@ -1198,7 +1195,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1213,9 +1210,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="17" t="s">
-        <v>44</v>
-      </c>
+      <c r="B28" s="17"/>
       <c r="C28" s="49">
         <v>14</v>
       </c>
@@ -1225,29 +1220,33 @@
       <c r="E28" s="19">
         <v>45629</v>
       </c>
-      <c r="F28" s="41" t="s">
-        <v>42</v>
+      <c r="F28" s="52" t="s">
+        <v>53</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="44"/>
     </row>
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
+      <c r="A29" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="B29" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="50"/>
+        <v>40</v>
+      </c>
+      <c r="C29" s="51"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="21">
         <v>45631</v>
       </c>
-      <c r="F29" s="28" t="s">
-        <v>43</v>
+      <c r="F29" s="42" t="s">
+        <v>19</v>
       </c>
       <c r="G29" s="28"/>
-      <c r="H29" s="14"/>
+      <c r="H29" s="43" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
@@ -1269,14 +1268,12 @@
         <v>19</v>
       </c>
       <c r="G30" s="8"/>
-      <c r="H30" s="44" t="s">
-        <v>26</v>
-      </c>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="50"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1285,12 +1282,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1300,6 +1291,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS235/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/teaching/SDS-CS235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306589EB-5D42-D14D-83F3-F48FF2DCB1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB58CC97-0286-CF41-8BAF-5E0924439D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45860" yWindow="1820" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t xml:space="preserve">Open Problems in VA, AMA, Final Project Q&amp;A </t>
+  </si>
+  <si>
+    <t>fp04</t>
   </si>
 </sst>
 </file>
@@ -371,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -446,13 +449,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,7 +673,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -728,7 +730,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -761,7 +763,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="50"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -796,7 +798,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="50"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -833,7 +835,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="50"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -874,7 +876,7 @@
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="50"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -911,7 +913,7 @@
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="50"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -951,7 +953,7 @@
       <c r="B15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -995,7 +997,7 @@
       <c r="B17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1031,7 +1033,7 @@
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="51"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1069,7 +1071,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="51"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1113,7 +1115,7 @@
       <c r="B23" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1153,7 +1155,7 @@
       <c r="B25" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="51"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1185,8 +1187,12 @@
       <c r="F26" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="44"/>
+      <c r="G26" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
@@ -1195,7 +1201,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1220,7 +1226,7 @@
       <c r="E28" s="19">
         <v>45629</v>
       </c>
-      <c r="F28" s="52" t="s">
+      <c r="F28" s="17" t="s">
         <v>53</v>
       </c>
       <c r="G28" s="17"/>
@@ -1233,7 +1239,7 @@
       <c r="B29" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1245,7 +1251,7 @@
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="43" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -1273,7 +1279,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="51"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1282,6 +1288,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1291,12 +1303,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/teaching/SDS-CS235/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Smith/teaching/SDS-CS235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB58CC97-0286-CF41-8BAF-5E0924439D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A732120B-4024-9744-B7AD-7246CD5C18A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45860" yWindow="1820" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -187,9 +187,6 @@
     <t>Ab Sick - No Class</t>
   </si>
   <si>
-    <t>FP Workshop - Peer Feedback</t>
-  </si>
-  <si>
     <t xml:space="preserve">FP Workshop - Prototype Testing </t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>fp04</t>
+  </si>
+  <si>
+    <t>Provenance</t>
   </si>
 </sst>
 </file>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1112,9 +1112,7 @@
     </row>
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
-      <c r="B23" s="28" t="s">
-        <v>40</v>
-      </c>
+      <c r="B23" s="28"/>
       <c r="C23" s="50"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
@@ -1122,8 +1120,8 @@
       <c r="E23" s="21">
         <v>45610</v>
       </c>
-      <c r="F23" s="42" t="s">
-        <v>52</v>
+      <c r="F23" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>26</v>
@@ -1145,7 +1143,7 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="9"/>
@@ -1185,10 +1183,10 @@
         <v>45622</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H26" s="44" t="s">
         <v>25</v>
@@ -1227,7 +1225,7 @@
         <v>45629</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="44"/>
@@ -1251,7 +1249,7 @@
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Smith/teaching/SDS-CS235/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/teaching/SDS-CS235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A732120B-4024-9744-B7AD-7246CD5C18A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3B83776-8EDF-5946-B659-04F2F5EBD95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20540" yWindow="500" windowWidth="22780" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -139,9 +139,6 @@
     <t>Color and Visual Channels</t>
   </si>
   <si>
-    <t>Dimension Reduction and Projection</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mid-Semester Project Presentations </t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>Provenance</t>
+  </si>
+  <si>
+    <t>Dimension Reduction</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -755,7 +755,7 @@
         <v>45545</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -843,7 +843,7 @@
         <v>45561</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>23</v>
@@ -869,7 +869,7 @@
         <v>45566</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="34"/>
@@ -884,7 +884,7 @@
         <v>45294</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>24</v>
@@ -906,7 +906,7 @@
         <v>45573</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="34"/>
@@ -951,7 +951,7 @@
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="24" t="s">
@@ -964,14 +964,14 @@
         <v>20</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="49">
         <v>8</v>
@@ -983,7 +983,7 @@
         <v>45587</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="44" t="s">
@@ -995,7 +995,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="51"/>
       <c r="D17" s="24" t="s">
@@ -1005,11 +1005,11 @@
         <v>45589</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1041,10 +1041,10 @@
         <v>45596</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="43"/>
       <c r="I19" s="10"/>
@@ -1062,7 +1062,7 @@
         <v>45601</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -1079,13 +1079,13 @@
         <v>45603</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>27</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1121,7 +1121,7 @@
         <v>45610</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>26</v>
@@ -1143,7 +1143,7 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="9"/>
@@ -1151,7 +1151,7 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="25" t="s">
@@ -1161,7 +1161,7 @@
         <v>45617</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>25</v>
@@ -1183,10 +1183,10 @@
         <v>45622</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H26" s="44" t="s">
         <v>25</v>
@@ -1225,7 +1225,7 @@
         <v>45629</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="44"/>
@@ -1235,7 +1235,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="50"/>
       <c r="D29" s="25" t="s">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/teaching/SDS-CS235/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Library/Mobile Documents/com~apple~CloudDocs/Documents/Smith/teaching/SDS-CS235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3B83776-8EDF-5946-B659-04F2F5EBD95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1C45216-7EAB-9E46-AA4D-3F3B19393D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20540" yWindow="500" windowWidth="22780" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,9 +136,6 @@
     <t>Networks</t>
   </si>
   <si>
-    <t>Color and Visual Channels</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mid-Semester Project Presentations </t>
   </si>
   <si>
@@ -187,9 +184,6 @@
     <t xml:space="preserve">FP Workshop - Prototype Testing </t>
   </si>
   <si>
-    <t xml:space="preserve">Open Problems in VA, AMA, Final Project Q&amp;A </t>
-  </si>
-  <si>
     <t>fp04</t>
   </si>
   <si>
@@ -197,6 +191,12 @@
   </si>
   <si>
     <t>Dimension Reduction</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Explainable AI (XAI)</t>
   </si>
 </sst>
 </file>
@@ -449,10 +449,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -730,7 +730,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="51"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -755,7 +755,7 @@
         <v>45545</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -763,7 +763,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="51"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -798,7 +798,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="51"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -835,7 +835,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="51"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -843,7 +843,7 @@
         <v>45561</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>23</v>
@@ -869,14 +869,14 @@
         <v>45566</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="51"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -884,7 +884,7 @@
         <v>45294</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>24</v>
@@ -906,14 +906,14 @@
         <v>45573</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="51"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -951,9 +951,9 @@
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="51"/>
+        <v>37</v>
+      </c>
+      <c r="C15" s="50"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -964,14 +964,14 @@
         <v>20</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="49">
         <v>8</v>
@@ -983,7 +983,7 @@
         <v>45587</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="44" t="s">
@@ -995,9 +995,9 @@
         <v>10</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="51"/>
+        <v>38</v>
+      </c>
+      <c r="C17" s="50"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1005,11 +1005,11 @@
         <v>45589</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1025,7 +1025,7 @@
         <v>45594</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
@@ -1033,7 +1033,7 @@
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="50"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1041,10 +1041,10 @@
         <v>45596</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="43"/>
       <c r="I19" s="10"/>
@@ -1062,7 +1062,7 @@
         <v>45601</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -1071,7 +1071,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="50"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1079,13 +1079,13 @@
         <v>45603</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>27</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1113,7 +1113,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="50"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>45610</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>26</v>
@@ -1143,7 +1143,7 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="9"/>
@@ -1151,9 +1151,9 @@
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="50"/>
+        <v>38</v>
+      </c>
+      <c r="C25" s="51"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>45617</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>25</v>
@@ -1183,10 +1183,10 @@
         <v>45622</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H26" s="44" t="s">
         <v>25</v>
@@ -1199,7 +1199,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>45629</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="44"/>
@@ -1235,9 +1235,9 @@
         <v>10</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="50"/>
+        <v>38</v>
+      </c>
+      <c r="C29" s="51"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -1277,7 +1277,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="50"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1286,12 +1286,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1301,6 +1295,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Library/Mobile Documents/com~apple~CloudDocs/Documents/Smith/teaching/SDS-CS235/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Smith/teaching/SDS-CS235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1C45216-7EAB-9E46-AA4D-3F3B19393D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEA6F18-FDE3-474D-BB58-E45BBEE5EA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20540" yWindow="500" windowWidth="22780" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -187,16 +187,16 @@
     <t>fp04</t>
   </si>
   <si>
-    <t>Provenance</t>
-  </si>
-  <si>
-    <t>Dimension Reduction</t>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
-    <t>Explainable AI (XAI)</t>
+    <t>Dealing with Big Data</t>
+  </si>
+  <si>
+    <t>VA meets AI Part 1</t>
+  </si>
+  <si>
+    <t>VA meeting AI Part 2</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -1025,7 +1025,7 @@
         <v>45594</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
@@ -1143,7 +1143,7 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="9"/>
@@ -1183,7 +1183,7 @@
         <v>45622</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>50</v>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Smith/teaching/SDS-CS235/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Library/Mobile Documents/com~apple~CloudDocs/Documents/Smith/teaching/SDS-CS235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEA6F18-FDE3-474D-BB58-E45BBEE5EA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DE2D1A1-4281-3745-9BFC-A479F44528D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,10 +193,10 @@
     <t>Dealing with Big Data</t>
   </si>
   <si>
-    <t>VA meets AI Part 1</t>
-  </si>
-  <si>
-    <t>VA meeting AI Part 2</t>
+    <t>VA meets AI</t>
+  </si>
+  <si>
+    <t>Evaluation Pt. 2</t>
   </si>
 </sst>
 </file>
@@ -449,10 +449,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -730,7 +730,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
@@ -763,7 +763,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="50"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
@@ -798,7 +798,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="C7" s="50"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
@@ -835,7 +835,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="C9" s="50"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="24" t="s">
         <v>13</v>
       </c>
@@ -876,7 +876,7 @@
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="C11" s="50"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
@@ -913,7 +913,7 @@
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="C13" s="50"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="24" t="s">
         <v>13</v>
       </c>
@@ -953,7 +953,7 @@
       <c r="B15" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
@@ -997,7 +997,7 @@
       <c r="B17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1033,7 +1033,7 @@
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="51"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -1071,7 +1071,7 @@
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="51"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1113,7 +1113,7 @@
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="51"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="25" t="s">
         <v>13</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>45615</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="9"/>
@@ -1153,7 +1153,7 @@
       <c r="B25" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="51"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>45622</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>50</v>
@@ -1199,7 +1199,7 @@
       <c r="B27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="35" t="s">
         <v>13</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>45629</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="44"/>
@@ -1237,7 +1237,7 @@
       <c r="B29" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
@@ -1277,7 +1277,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="51"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1286,6 +1286,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1295,12 +1301,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
